--- a/Code/Results/Cases/Case_1_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.34149438403927</v>
+        <v>16.24598993899883</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.786396049075454</v>
+        <v>10.79617379259714</v>
       </c>
       <c r="E2">
-        <v>10.0016294987483</v>
+        <v>16.68946058065848</v>
       </c>
       <c r="F2">
-        <v>20.90658614063266</v>
+        <v>31.92513696040787</v>
       </c>
       <c r="G2">
-        <v>22.48174830608695</v>
+        <v>31.48042673494712</v>
       </c>
       <c r="H2">
-        <v>9.007341925431625</v>
+        <v>15.0561446755569</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.013386514012241</v>
+        <v>11.74327536271102</v>
       </c>
       <c r="K2">
-        <v>12.542149688081</v>
+        <v>8.516319565688967</v>
       </c>
       <c r="L2">
-        <v>6.315340815499666</v>
+        <v>8.443170875714459</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.2570585530916</v>
+        <v>20.15448419976025</v>
       </c>
       <c r="O2">
-        <v>14.68523586802182</v>
+        <v>23.26516580848718</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.71658151249599</v>
+        <v>16.14040274585248</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.702175317029274</v>
+        <v>10.80494102798977</v>
       </c>
       <c r="E3">
-        <v>10.06849401139565</v>
+        <v>16.73355619278552</v>
       </c>
       <c r="F3">
-        <v>20.7585407057631</v>
+        <v>31.99507709943502</v>
       </c>
       <c r="G3">
-        <v>22.16992154018288</v>
+        <v>31.53788363305038</v>
       </c>
       <c r="H3">
-        <v>9.050335013189263</v>
+        <v>15.09668349588482</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.079806267955305</v>
+        <v>11.76922460757771</v>
       </c>
       <c r="K3">
-        <v>11.89468198210519</v>
+        <v>8.198550531639043</v>
       </c>
       <c r="L3">
-        <v>5.980086921743774</v>
+        <v>8.399703183412626</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.43067019366234</v>
+        <v>20.21003056061408</v>
       </c>
       <c r="O3">
-        <v>14.67419349147606</v>
+        <v>23.32873541578058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.32145744696384</v>
+        <v>16.07799981834222</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.652778718330414</v>
+        <v>10.81178869855039</v>
       </c>
       <c r="E4">
-        <v>10.1135867889637</v>
+        <v>16.76258211002052</v>
       </c>
       <c r="F4">
-        <v>20.68219665754136</v>
+        <v>32.04429370988152</v>
       </c>
       <c r="G4">
-        <v>21.99739911304687</v>
+        <v>31.58132946714779</v>
       </c>
       <c r="H4">
-        <v>9.081389168961845</v>
+        <v>15.1236095946423</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.122109182631819</v>
+        <v>11.78603090666653</v>
       </c>
       <c r="K4">
-        <v>11.47772600508861</v>
+        <v>7.995418919398895</v>
       </c>
       <c r="L4">
-        <v>5.764036177000299</v>
+        <v>8.373807489249984</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.54019818660568</v>
+        <v>20.245835940964</v>
       </c>
       <c r="O4">
-        <v>14.67767558042857</v>
+        <v>23.37192512257397</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.15779118642498</v>
+        <v>16.05320277638404</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.633246312705091</v>
+        <v>10.81494817484469</v>
       </c>
       <c r="E5">
-        <v>10.13296054157745</v>
+        <v>16.7749017324482</v>
       </c>
       <c r="F5">
-        <v>20.65468157279863</v>
+        <v>32.0659258987129</v>
       </c>
       <c r="G5">
-        <v>21.93181457920848</v>
+        <v>31.60108351369511</v>
       </c>
       <c r="H5">
-        <v>9.095182727744064</v>
+        <v>15.13509424420566</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.139733201947999</v>
+        <v>11.79309980523959</v>
       </c>
       <c r="K5">
-        <v>11.30302917032249</v>
+        <v>7.910700793386235</v>
       </c>
       <c r="L5">
-        <v>5.67347157741078</v>
+        <v>8.36346161467506</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.5855795567769</v>
+        <v>20.2608554677891</v>
       </c>
       <c r="O5">
-        <v>14.68159853241351</v>
+        <v>23.39056999317776</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13046163643169</v>
+        <v>16.04912408464842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.630039443556472</v>
+        <v>10.81549510956181</v>
       </c>
       <c r="E6">
-        <v>10.13623732879785</v>
+        <v>16.77697709248862</v>
       </c>
       <c r="F6">
-        <v>20.6503278440192</v>
+        <v>32.0696130491649</v>
       </c>
       <c r="G6">
-        <v>21.92120777812828</v>
+        <v>31.60448730811827</v>
       </c>
       <c r="H6">
-        <v>9.097540993237613</v>
+        <v>15.13703219668202</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.142683005729033</v>
+        <v>11.79428690686644</v>
       </c>
       <c r="K6">
-        <v>11.27373519534896</v>
+        <v>7.896518639117302</v>
       </c>
       <c r="L6">
-        <v>5.658282539830322</v>
+        <v>8.361756389404555</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.59316058642984</v>
+        <v>20.26337536544861</v>
       </c>
       <c r="O6">
-        <v>14.68239890156939</v>
+        <v>23.39372903388864</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31926059755985</v>
+        <v>16.07766280665938</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.652512861127245</v>
+        <v>10.8118298133969</v>
       </c>
       <c r="E7">
-        <v>10.11384405124085</v>
+        <v>16.76274626642849</v>
       </c>
       <c r="F7">
-        <v>20.68181111164283</v>
+        <v>32.04457906992796</v>
       </c>
       <c r="G7">
-        <v>21.99649557664436</v>
+        <v>31.58158758474723</v>
       </c>
       <c r="H7">
-        <v>9.081570624754171</v>
+        <v>15.12376240698901</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.122345302809209</v>
+        <v>11.78612534796488</v>
       </c>
       <c r="K7">
-        <v>11.47538920941735</v>
+        <v>7.99428412966484</v>
       </c>
       <c r="L7">
-        <v>5.762824938191712</v>
+        <v>8.373667114310082</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54080717315114</v>
+        <v>20.2460367628775</v>
       </c>
       <c r="O7">
-        <v>14.67771845048092</v>
+        <v>23.37217234488764</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.12851944700229</v>
+        <v>16.20909308213556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.756885564163404</v>
+        <v>10.7988932196502</v>
       </c>
       <c r="E8">
-        <v>10.02383578974663</v>
+        <v>16.70426024590858</v>
       </c>
       <c r="F8">
-        <v>20.85248248118362</v>
+        <v>31.94794957453461</v>
       </c>
       <c r="G8">
-        <v>22.37027882834375</v>
+        <v>31.49854051050398</v>
       </c>
       <c r="H8">
-        <v>9.0211799482364</v>
+        <v>15.06970026040928</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.035974071765434</v>
+        <v>11.75204174807009</v>
       </c>
       <c r="K8">
-        <v>12.32298254385553</v>
+        <v>8.4084603370591</v>
       </c>
       <c r="L8">
-        <v>6.201886072687663</v>
+        <v>8.428022924191554</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.31631856207303</v>
+        <v>20.17328450407965</v>
       </c>
       <c r="O8">
-        <v>14.67925303043591</v>
+        <v>23.28622123071678</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.61662686292778</v>
+        <v>16.48507977313315</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.979216585551875</v>
+        <v>10.78511147424431</v>
       </c>
       <c r="E9">
-        <v>9.880173255772545</v>
+        <v>16.60501746178508</v>
       </c>
       <c r="F9">
-        <v>21.30515247005599</v>
+        <v>31.80828760608651</v>
       </c>
       <c r="G9">
-        <v>23.25462828976488</v>
+        <v>31.40064359676185</v>
       </c>
       <c r="H9">
-        <v>8.941183384047084</v>
+        <v>14.97981853203023</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.878538899834321</v>
+        <v>11.69210699363818</v>
       </c>
       <c r="K9">
-        <v>13.82786882324633</v>
+        <v>9.154126403027545</v>
       </c>
       <c r="L9">
-        <v>6.980492661102451</v>
+        <v>8.54058271326875</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.8988225248587</v>
+        <v>20.04405110024258</v>
       </c>
       <c r="O9">
-        <v>14.76701558939512</v>
+        <v>23.15069361192404</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.64072732901609</v>
+        <v>16.69756447433578</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.152308473404871</v>
+        <v>10.78200142428571</v>
       </c>
       <c r="E10">
-        <v>9.795806860488749</v>
+        <v>16.54147668896082</v>
       </c>
       <c r="F10">
-        <v>21.71249033431319</v>
+        <v>31.73611574349779</v>
       </c>
       <c r="G10">
-        <v>23.99705427018948</v>
+        <v>31.36848763569205</v>
       </c>
       <c r="H10">
-        <v>8.907942557728459</v>
+        <v>14.92359935627139</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.769965999995879</v>
+        <v>11.65224390194163</v>
       </c>
       <c r="K10">
-        <v>14.83447352927102</v>
+        <v>9.658113557316305</v>
       </c>
       <c r="L10">
-        <v>7.500960366521674</v>
+        <v>8.626465048451044</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.6051929180175</v>
+        <v>19.95721814751908</v>
       </c>
       <c r="O10">
-        <v>14.88755422632795</v>
+        <v>23.07129429732006</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.09020336294432</v>
+        <v>16.79602606419325</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.232939550656934</v>
+        <v>10.78209810442488</v>
       </c>
       <c r="E11">
-        <v>9.76229292397996</v>
+        <v>16.51459614807961</v>
       </c>
       <c r="F11">
-        <v>21.91447708199828</v>
+        <v>31.70989953882142</v>
       </c>
       <c r="G11">
-        <v>24.35475259320756</v>
+        <v>31.3625137248282</v>
       </c>
       <c r="H11">
-        <v>8.898837464085288</v>
+        <v>14.90015143023253</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.722074189306677</v>
+        <v>11.63500691493673</v>
       </c>
       <c r="K11">
-        <v>15.27050157736404</v>
+        <v>9.877319516166615</v>
       </c>
       <c r="L11">
-        <v>7.726382912086552</v>
+        <v>8.666126295602368</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.47429140841937</v>
+        <v>19.91946180984916</v>
       </c>
       <c r="O11">
-        <v>14.95544904586507</v>
+        <v>23.03956119002365</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.25796362879288</v>
+        <v>16.83354287827122</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.263724682257419</v>
+        <v>10.78235091101568</v>
       </c>
       <c r="E12">
-        <v>9.750324941469781</v>
+        <v>16.50470758986929</v>
       </c>
       <c r="F12">
-        <v>21.99338908087928</v>
+        <v>31.70092343631536</v>
       </c>
       <c r="G12">
-        <v>24.49304430568641</v>
+        <v>31.36149605281708</v>
       </c>
       <c r="H12">
-        <v>8.896295034532576</v>
+        <v>14.89157779195206</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.704151196150376</v>
+        <v>11.62860810135518</v>
       </c>
       <c r="K12">
-        <v>15.43244762139986</v>
+        <v>9.958842981179846</v>
       </c>
       <c r="L12">
-        <v>7.810107306173612</v>
+        <v>8.681221530152042</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.42509298618243</v>
+        <v>19.90541414750102</v>
       </c>
       <c r="O12">
-        <v>14.98310546969749</v>
+        <v>23.02817586422053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.22194349301629</v>
+        <v>16.82545310326815</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.25708366704866</v>
+        <v>10.78228686842832</v>
       </c>
       <c r="E13">
-        <v>9.752869919944754</v>
+        <v>16.50682435637151</v>
       </c>
       <c r="F13">
-        <v>21.97628583812492</v>
+        <v>31.70281428764839</v>
       </c>
       <c r="G13">
-        <v>24.46313501495756</v>
+        <v>31.36165988477779</v>
       </c>
       <c r="H13">
-        <v>8.89680166804259</v>
+        <v>14.89341069074208</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.708001824184963</v>
+        <v>11.62998049529041</v>
       </c>
       <c r="K13">
-        <v>15.39771080746754</v>
+        <v>9.941352046120222</v>
       </c>
       <c r="L13">
-        <v>7.792148693943922</v>
+        <v>8.67796724678257</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.4356724521257</v>
+        <v>19.90842846687629</v>
       </c>
       <c r="O13">
-        <v>14.97706156107782</v>
+        <v>23.03059981144014</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.10405457998947</v>
+        <v>16.79910811284589</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.235467327657037</v>
+        <v>10.78211457697147</v>
       </c>
       <c r="E14">
-        <v>9.761293682538479</v>
+        <v>16.51377679141679</v>
       </c>
       <c r="F14">
-        <v>21.92092052100494</v>
+        <v>31.70914200217444</v>
       </c>
       <c r="G14">
-        <v>24.36607324074849</v>
+        <v>31.36240506109633</v>
       </c>
       <c r="H14">
-        <v>8.898609915215751</v>
+        <v>14.89943994868933</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.720595409691422</v>
+        <v>11.63447790912812</v>
       </c>
       <c r="K14">
-        <v>15.28388856675772</v>
+        <v>9.884056464050557</v>
       </c>
       <c r="L14">
-        <v>7.733303828426491</v>
+        <v>8.667366710097415</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.47023646258617</v>
+        <v>19.91830109866494</v>
       </c>
       <c r="O14">
-        <v>14.95768497519338</v>
+        <v>23.03861185684591</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.03152326682877</v>
+        <v>16.78300037969292</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.222258908404851</v>
+        <v>10.78203716301165</v>
       </c>
       <c r="E15">
-        <v>9.766548352101246</v>
+        <v>16.51807317513315</v>
       </c>
       <c r="F15">
-        <v>21.88732396154647</v>
+        <v>31.71314181004581</v>
       </c>
       <c r="G15">
-        <v>24.30698878163476</v>
+        <v>31.36302356307969</v>
       </c>
       <c r="H15">
-        <v>8.899836652487622</v>
+        <v>14.90317283309644</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.728336944925102</v>
+        <v>11.63724941885715</v>
       </c>
       <c r="K15">
-        <v>15.21375605589554</v>
+        <v>9.848766820474117</v>
       </c>
       <c r="L15">
-        <v>7.697046155492816</v>
+        <v>8.660883256909056</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.49145585612627</v>
+        <v>19.92438087820821</v>
       </c>
       <c r="O15">
-        <v>14.94607166314357</v>
+        <v>23.04360169789165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.61101509062614</v>
+        <v>16.69116368213275</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.147075377955116</v>
+        <v>10.78202542403032</v>
       </c>
       <c r="E16">
-        <v>9.798096950431585</v>
+        <v>16.54327408195109</v>
       </c>
       <c r="F16">
-        <v>21.69962804232346</v>
+        <v>31.73796216855894</v>
       </c>
       <c r="G16">
-        <v>23.97407702938925</v>
+        <v>31.36905221332109</v>
       </c>
       <c r="H16">
-        <v>8.908662085082035</v>
+        <v>14.92517450622641</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.773125749717027</v>
+        <v>11.65338838371729</v>
       </c>
       <c r="K16">
-        <v>14.80553568927029</v>
+        <v>9.643582080098318</v>
       </c>
       <c r="L16">
-        <v>7.485999531543467</v>
+        <v>8.623884267327494</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.61380029545356</v>
+        <v>19.95972062910877</v>
       </c>
       <c r="O16">
-        <v>14.88338584457007</v>
+        <v>23.073456442931</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.34877886147616</v>
+        <v>16.63526673880972</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.101422731431843</v>
+        <v>10.7824045516331</v>
       </c>
       <c r="E17">
-        <v>9.818713365112545</v>
+        <v>16.55925211210626</v>
       </c>
       <c r="F17">
-        <v>21.58877601090857</v>
+        <v>31.7548831663024</v>
       </c>
       <c r="G17">
-        <v>23.77493963927175</v>
+        <v>31.37496743922943</v>
       </c>
       <c r="H17">
-        <v>8.915645497394834</v>
+        <v>14.9392163168649</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.80098398589314</v>
+        <v>11.66351847135894</v>
       </c>
       <c r="K17">
-        <v>14.54948290731306</v>
+        <v>9.515102048621916</v>
       </c>
       <c r="L17">
-        <v>7.353617911300085</v>
+        <v>8.601332167893425</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68952980299856</v>
+        <v>19.98184649037497</v>
       </c>
       <c r="O17">
-        <v>14.84832474476756</v>
+        <v>23.09289519474116</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.19640865325984</v>
+        <v>16.60328750305311</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.075343699356548</v>
+        <v>10.78276495545739</v>
       </c>
       <c r="E18">
-        <v>9.831027811747303</v>
+        <v>16.56863284117196</v>
       </c>
       <c r="F18">
-        <v>21.52658646173682</v>
+        <v>31.76523833612412</v>
       </c>
       <c r="G18">
-        <v>23.66228273504358</v>
+        <v>31.37918432805283</v>
       </c>
       <c r="H18">
-        <v>8.920225979389278</v>
+        <v>14.94749295961685</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.817148529947384</v>
+        <v>11.66942948412589</v>
       </c>
       <c r="K18">
-        <v>14.40014920338282</v>
+        <v>9.440258720441811</v>
       </c>
       <c r="L18">
-        <v>7.276408195813293</v>
+        <v>8.588417146764488</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.73333972355478</v>
+        <v>19.99473695148129</v>
       </c>
       <c r="O18">
-        <v>14.82938404044645</v>
+        <v>23.10448865535962</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14455744854232</v>
+        <v>16.59249012025276</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.066545168858037</v>
+        <v>10.78291146262361</v>
       </c>
       <c r="E19">
-        <v>9.835274964962871</v>
+        <v>16.57184174692204</v>
       </c>
       <c r="F19">
-        <v>21.50579887927014</v>
+        <v>31.7688513508798</v>
       </c>
       <c r="G19">
-        <v>23.62446307178272</v>
+        <v>31.3807519863182</v>
       </c>
       <c r="H19">
-        <v>8.921872474346724</v>
+        <v>14.95032967311414</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.822645910225552</v>
+        <v>11.67144537247734</v>
       </c>
       <c r="K19">
-        <v>14.34923457048182</v>
+        <v>9.414757012447803</v>
       </c>
       <c r="L19">
-        <v>7.250083299956064</v>
+        <v>8.584054289522456</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.74821673868797</v>
+        <v>19.99912968107925</v>
       </c>
       <c r="O19">
-        <v>14.82317940477556</v>
+        <v>23.10848488143591</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.37685432875105</v>
+        <v>16.64119954253276</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.106264136058478</v>
+        <v>10.7823494693025</v>
       </c>
       <c r="E20">
-        <v>9.816471306902757</v>
+        <v>16.55753150265221</v>
       </c>
       <c r="F20">
-        <v>21.600413753062</v>
+        <v>31.75301745210268</v>
       </c>
       <c r="G20">
-        <v>23.79594361900485</v>
+        <v>31.37425344102975</v>
       </c>
       <c r="H20">
-        <v>8.914843460375984</v>
+        <v>14.93770082728609</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.79800383396901</v>
+        <v>11.66243136930984</v>
       </c>
       <c r="K20">
-        <v>14.57695343951979</v>
+        <v>9.528877068601226</v>
       </c>
       <c r="L20">
-        <v>7.367820690746655</v>
+        <v>8.603727109368982</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.68144224836785</v>
+        <v>19.97947416260424</v>
       </c>
       <c r="O20">
-        <v>14.85192972060793</v>
+        <v>23.09078317797598</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13874843108668</v>
+        <v>16.80684021131579</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.241809892843783</v>
+        <v>10.78215932523468</v>
       </c>
       <c r="E21">
-        <v>9.758799604811662</v>
+        <v>16.51172681285194</v>
       </c>
       <c r="F21">
-        <v>21.93711670587598</v>
+        <v>31.70725757857203</v>
       </c>
       <c r="G21">
-        <v>24.39450586951146</v>
+        <v>31.36215241272953</v>
       </c>
       <c r="H21">
-        <v>8.898053888447143</v>
+        <v>14.89766071768117</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.716890621602521</v>
+        <v>11.63315342742312</v>
       </c>
       <c r="K21">
-        <v>15.31740703455615</v>
+        <v>9.900926148406194</v>
       </c>
       <c r="L21">
-        <v>7.750632491111184</v>
+        <v>8.670478343036462</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.46007420822601</v>
+        <v>19.91539449462506</v>
       </c>
       <c r="O21">
-        <v>14.96332300492403</v>
+        <v>23.03624138690512</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.62240097165972</v>
+        <v>16.91643268456096</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.331855985579552</v>
+        <v>10.78329461751577</v>
       </c>
       <c r="E22">
-        <v>9.725333713694843</v>
+        <v>16.48348389386919</v>
       </c>
       <c r="F22">
-        <v>22.17130763661662</v>
+        <v>31.68289620952067</v>
       </c>
       <c r="G22">
-        <v>24.80223072425287</v>
+        <v>31.36149708874335</v>
       </c>
       <c r="H22">
-        <v>8.892378148504832</v>
+        <v>14.87327326268844</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.665116282032918</v>
+        <v>11.61476712216362</v>
       </c>
       <c r="K22">
-        <v>15.78286483128791</v>
+        <v>10.13541156237851</v>
       </c>
       <c r="L22">
-        <v>7.991272705387101</v>
+        <v>8.714545151915667</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.31755437846034</v>
+        <v>19.87497055034319</v>
       </c>
       <c r="O22">
-        <v>15.04749776618805</v>
+        <v>23.00427515937323</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.36559884290915</v>
+        <v>16.85782794962498</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.283669738309882</v>
+        <v>10.78257384221455</v>
       </c>
       <c r="E23">
-        <v>9.742800406905285</v>
+        <v>16.4984029496153</v>
       </c>
       <c r="F23">
-        <v>22.04501555677017</v>
+        <v>31.69539096516931</v>
       </c>
       <c r="G23">
-        <v>24.58311987426523</v>
+        <v>31.36118336971008</v>
       </c>
       <c r="H23">
-        <v>8.894909112998292</v>
+        <v>14.8861264057976</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.692636914513297</v>
+        <v>11.62451191943864</v>
       </c>
       <c r="K23">
-        <v>15.53613633169617</v>
+        <v>10.01106688482245</v>
       </c>
       <c r="L23">
-        <v>7.863713647879924</v>
+        <v>8.690988473720314</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.39342693856003</v>
+        <v>19.896412689425</v>
       </c>
       <c r="O23">
-        <v>15.00150986906265</v>
+        <v>23.02099924362575</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.36416640880054</v>
+        <v>16.63851683189974</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.104074814460047</v>
+        <v>10.78237392827075</v>
       </c>
       <c r="E24">
-        <v>9.817483504795272</v>
+        <v>16.55830878353611</v>
       </c>
       <c r="F24">
-        <v>21.59514753263043</v>
+        <v>31.75385898826803</v>
       </c>
       <c r="G24">
-        <v>23.78644201788413</v>
+        <v>31.37457369740941</v>
       </c>
       <c r="H24">
-        <v>8.915204302557745</v>
+        <v>14.93838534522753</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.799350697974615</v>
+        <v>11.66292257683125</v>
       </c>
       <c r="K24">
-        <v>14.56454063077054</v>
+        <v>9.522652426764781</v>
       </c>
       <c r="L24">
-        <v>7.36140304528064</v>
+        <v>8.60264419841228</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.68509778355351</v>
+        <v>19.98054616234606</v>
       </c>
       <c r="O24">
-        <v>14.85029612743529</v>
+        <v>23.09173671919044</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.22566267770961</v>
+        <v>16.40860683409745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.917282070927394</v>
+        <v>10.78760401621119</v>
       </c>
       <c r="E25">
-        <v>9.915405060687679</v>
+        <v>16.63021607302392</v>
       </c>
       <c r="F25">
-        <v>21.16973825232079</v>
+        <v>31.84072794342783</v>
       </c>
       <c r="G25">
-        <v>22.99908509039594</v>
+        <v>31.42015242733595</v>
       </c>
       <c r="H25">
-        <v>8.958496989825978</v>
+        <v>15.00240859453559</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.91987007540831</v>
+        <v>11.70758578898643</v>
       </c>
       <c r="K25">
-        <v>13.43797445836553</v>
+        <v>8.959896530435199</v>
       </c>
       <c r="L25">
-        <v>6.778845230875959</v>
+        <v>8.509539419371032</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.00940969930787</v>
+        <v>20.07758176825084</v>
       </c>
       <c r="O25">
-        <v>14.73373710603433</v>
+        <v>23.18381753973987</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.24598993899883</v>
+        <v>13.34149438403925</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.79617379259714</v>
+        <v>6.786396049075454</v>
       </c>
       <c r="E2">
-        <v>16.68946058065848</v>
+        <v>10.00162949874818</v>
       </c>
       <c r="F2">
-        <v>31.92513696040787</v>
+        <v>20.90658614063262</v>
       </c>
       <c r="G2">
-        <v>31.48042673494712</v>
+        <v>22.48174830608688</v>
       </c>
       <c r="H2">
-        <v>15.0561446755569</v>
+        <v>9.007341925431628</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.74327536271102</v>
+        <v>7.013386514012178</v>
       </c>
       <c r="K2">
-        <v>8.516319565688967</v>
+        <v>12.54214968808098</v>
       </c>
       <c r="L2">
-        <v>8.443170875714459</v>
+        <v>6.315340815499702</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.15448419976025</v>
+        <v>13.25705855309157</v>
       </c>
       <c r="O2">
-        <v>23.26516580848718</v>
+        <v>14.68523586802178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.14040274585248</v>
+        <v>12.71658151249596</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.80494102798977</v>
+        <v>6.702175317029154</v>
       </c>
       <c r="E3">
-        <v>16.73355619278552</v>
+        <v>10.06849401139558</v>
       </c>
       <c r="F3">
-        <v>31.99507709943502</v>
+        <v>20.75854070576296</v>
       </c>
       <c r="G3">
-        <v>31.53788363305038</v>
+        <v>22.16992154018281</v>
       </c>
       <c r="H3">
-        <v>15.09668349588482</v>
+        <v>9.050335013189216</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.76922460757771</v>
+        <v>7.07980626795527</v>
       </c>
       <c r="K3">
-        <v>8.198550531639043</v>
+        <v>11.89468198210522</v>
       </c>
       <c r="L3">
-        <v>8.399703183412626</v>
+        <v>5.980086921743818</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.21003056061408</v>
+        <v>13.43067019366227</v>
       </c>
       <c r="O3">
-        <v>23.32873541578058</v>
+        <v>14.67419349147596</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.07799981834222</v>
+        <v>12.32145744696376</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.81178869855039</v>
+        <v>6.652778718330089</v>
       </c>
       <c r="E4">
-        <v>16.76258211002052</v>
+        <v>10.1135867889635</v>
       </c>
       <c r="F4">
-        <v>32.04429370988152</v>
+        <v>20.68219665754112</v>
       </c>
       <c r="G4">
-        <v>31.58132946714779</v>
+        <v>21.99739911304692</v>
       </c>
       <c r="H4">
-        <v>15.1236095946423</v>
+        <v>9.081389168961788</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.78603090666653</v>
+        <v>7.12210918263175</v>
       </c>
       <c r="K4">
-        <v>7.995418919398895</v>
+        <v>11.47772600508859</v>
       </c>
       <c r="L4">
-        <v>8.373807489249984</v>
+        <v>5.764036177000306</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.245835940964</v>
+        <v>13.54019818660561</v>
       </c>
       <c r="O4">
-        <v>23.37192512257397</v>
+        <v>14.67767558042847</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.05320277638404</v>
+        <v>12.15779118642505</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.81494817484469</v>
+        <v>6.633246312705148</v>
       </c>
       <c r="E5">
-        <v>16.7749017324482</v>
+        <v>10.13296054157751</v>
       </c>
       <c r="F5">
-        <v>32.0659258987129</v>
+        <v>20.65468157279875</v>
       </c>
       <c r="G5">
-        <v>31.60108351369511</v>
+        <v>21.93181457920869</v>
       </c>
       <c r="H5">
-        <v>15.13509424420566</v>
+        <v>9.095182727744131</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.79309980523959</v>
+        <v>7.139733201948066</v>
       </c>
       <c r="K5">
-        <v>7.910700793386235</v>
+        <v>11.30302917032252</v>
       </c>
       <c r="L5">
-        <v>8.36346161467506</v>
+        <v>5.673471577410809</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.2608554677891</v>
+        <v>13.585579556777</v>
       </c>
       <c r="O5">
-        <v>23.39056999317776</v>
+        <v>14.6815985324136</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.04912408464842</v>
+        <v>12.13046163643171</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.81549510956181</v>
+        <v>6.630039443556493</v>
       </c>
       <c r="E6">
-        <v>16.77697709248862</v>
+        <v>10.13623732879786</v>
       </c>
       <c r="F6">
-        <v>32.0696130491649</v>
+        <v>20.65032784401923</v>
       </c>
       <c r="G6">
-        <v>31.60448730811827</v>
+        <v>21.92120777812831</v>
       </c>
       <c r="H6">
-        <v>15.13703219668202</v>
+        <v>9.097540993237621</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.79428690686644</v>
+        <v>7.142683005729033</v>
       </c>
       <c r="K6">
-        <v>7.896518639117302</v>
+        <v>11.27373519534892</v>
       </c>
       <c r="L6">
-        <v>8.361756389404555</v>
+        <v>5.658282539830291</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.26337536544861</v>
+        <v>13.59316058642981</v>
       </c>
       <c r="O6">
-        <v>23.39372903388864</v>
+        <v>14.6823989015694</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.07766280665938</v>
+        <v>12.31926059755986</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.8118298133969</v>
+        <v>6.652512861127404</v>
       </c>
       <c r="E7">
-        <v>16.76274626642849</v>
+        <v>10.11384405124097</v>
       </c>
       <c r="F7">
-        <v>32.04457906992796</v>
+        <v>20.6818111116428</v>
       </c>
       <c r="G7">
-        <v>31.58158758474723</v>
+        <v>21.99649557664427</v>
       </c>
       <c r="H7">
-        <v>15.12376240698901</v>
+        <v>9.081570624754047</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.78612534796488</v>
+        <v>7.122345302809276</v>
       </c>
       <c r="K7">
-        <v>7.99428412966484</v>
+        <v>11.47538920941739</v>
       </c>
       <c r="L7">
-        <v>8.373667114310082</v>
+        <v>5.762824938191683</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.2460367628775</v>
+        <v>13.54080717315114</v>
       </c>
       <c r="O7">
-        <v>23.37217234488764</v>
+        <v>14.67771845048084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.20909308213556</v>
+        <v>13.12851944700221</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.7988932196502</v>
+        <v>6.756885564163303</v>
       </c>
       <c r="E8">
-        <v>16.70426024590858</v>
+        <v>10.02383578974649</v>
       </c>
       <c r="F8">
-        <v>31.94794957453461</v>
+        <v>20.8524824811834</v>
       </c>
       <c r="G8">
-        <v>31.49854051050398</v>
+        <v>22.37027882834357</v>
       </c>
       <c r="H8">
-        <v>15.06970026040928</v>
+        <v>9.021179948236341</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.75204174807009</v>
+        <v>7.035974071765502</v>
       </c>
       <c r="K8">
-        <v>8.4084603370591</v>
+        <v>12.32298254385561</v>
       </c>
       <c r="L8">
-        <v>8.428022924191554</v>
+        <v>6.201886072687737</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.17328450407965</v>
+        <v>13.316318562073</v>
       </c>
       <c r="O8">
-        <v>23.28622123071678</v>
+        <v>14.67925303043579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.48507977313315</v>
+        <v>14.61662686292777</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.78511147424431</v>
+        <v>6.97921658555203</v>
       </c>
       <c r="E9">
-        <v>16.60501746178508</v>
+        <v>9.880173255772601</v>
       </c>
       <c r="F9">
-        <v>31.80828760608651</v>
+        <v>21.30515247005596</v>
       </c>
       <c r="G9">
-        <v>31.40064359676185</v>
+        <v>23.25462828976476</v>
       </c>
       <c r="H9">
-        <v>14.97981853203023</v>
+        <v>8.941183384047084</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.69210699363818</v>
+        <v>6.878538899834282</v>
       </c>
       <c r="K9">
-        <v>9.154126403027545</v>
+        <v>13.82786882324637</v>
       </c>
       <c r="L9">
-        <v>8.54058271326875</v>
+        <v>6.980492661102403</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.04405110024258</v>
+        <v>12.89882252485867</v>
       </c>
       <c r="O9">
-        <v>23.15069361192404</v>
+        <v>14.76701558939505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.69756447433578</v>
+        <v>15.64072732901612</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.78200142428571</v>
+        <v>7.152308473404832</v>
       </c>
       <c r="E10">
-        <v>16.54147668896082</v>
+        <v>9.795806860488755</v>
       </c>
       <c r="F10">
-        <v>31.73611574349779</v>
+        <v>21.71249033431311</v>
       </c>
       <c r="G10">
-        <v>31.36848763569205</v>
+        <v>23.99705427018943</v>
       </c>
       <c r="H10">
-        <v>14.92359935627139</v>
+        <v>8.907942557728456</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.65224390194163</v>
+        <v>6.769965999995914</v>
       </c>
       <c r="K10">
-        <v>9.658113557316305</v>
+        <v>14.83447352927104</v>
       </c>
       <c r="L10">
-        <v>8.626465048451044</v>
+        <v>7.500960366521771</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.95721814751908</v>
+        <v>12.6051929180175</v>
       </c>
       <c r="O10">
-        <v>23.07129429732006</v>
+        <v>14.88755422632793</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79602606419325</v>
+        <v>16.0902033629443</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.78209810442488</v>
+        <v>7.232939550656928</v>
       </c>
       <c r="E11">
-        <v>16.51459614807961</v>
+        <v>9.762292923979903</v>
       </c>
       <c r="F11">
-        <v>31.70989953882142</v>
+        <v>21.91447708199827</v>
       </c>
       <c r="G11">
-        <v>31.3625137248282</v>
+        <v>24.35475259320754</v>
       </c>
       <c r="H11">
-        <v>14.90015143023253</v>
+        <v>8.898837464085281</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.63500691493673</v>
+        <v>6.72207418930661</v>
       </c>
       <c r="K11">
-        <v>9.877319516166615</v>
+        <v>15.27050157736403</v>
       </c>
       <c r="L11">
-        <v>8.666126295602368</v>
+        <v>7.726382912086587</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.91946180984916</v>
+        <v>12.47429140841937</v>
       </c>
       <c r="O11">
-        <v>23.03956119002365</v>
+        <v>14.95544904586506</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.83354287827122</v>
+        <v>16.25796362879289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.78235091101568</v>
+        <v>7.2637246822575</v>
       </c>
       <c r="E12">
-        <v>16.50470758986929</v>
+        <v>9.750324941469955</v>
       </c>
       <c r="F12">
-        <v>31.70092343631536</v>
+        <v>21.99338908087924</v>
       </c>
       <c r="G12">
-        <v>31.36149605281708</v>
+        <v>24.49304430568623</v>
       </c>
       <c r="H12">
-        <v>14.89157779195206</v>
+        <v>8.896295034532576</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.62860810135518</v>
+        <v>6.704151196150445</v>
       </c>
       <c r="K12">
-        <v>9.958842981179846</v>
+        <v>15.43244762139988</v>
       </c>
       <c r="L12">
-        <v>8.681221530152042</v>
+        <v>7.810107306173562</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.90541414750102</v>
+        <v>12.4250929861824</v>
       </c>
       <c r="O12">
-        <v>23.02817586422053</v>
+        <v>14.98310546969743</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.82545310326815</v>
+        <v>16.22194349301626</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.78228686842832</v>
+        <v>7.257083667048509</v>
       </c>
       <c r="E13">
-        <v>16.50682435637151</v>
+        <v>9.752869919944644</v>
       </c>
       <c r="F13">
-        <v>31.70281428764839</v>
+        <v>21.97628583812484</v>
       </c>
       <c r="G13">
-        <v>31.36165988477779</v>
+        <v>24.4631350149575</v>
       </c>
       <c r="H13">
-        <v>14.89341069074208</v>
+        <v>8.896801668042595</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.62998049529041</v>
+        <v>6.708001824184993</v>
       </c>
       <c r="K13">
-        <v>9.941352046120222</v>
+        <v>15.39771080746754</v>
       </c>
       <c r="L13">
-        <v>8.67796724678257</v>
+        <v>7.792148693943945</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.90842846687629</v>
+        <v>12.4356724521257</v>
       </c>
       <c r="O13">
-        <v>23.03059981144014</v>
+        <v>14.97706156107781</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.79910811284589</v>
+        <v>16.10405457998947</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.78211457697147</v>
+        <v>7.235467327657054</v>
       </c>
       <c r="E14">
-        <v>16.51377679141679</v>
+        <v>9.761293682538549</v>
       </c>
       <c r="F14">
-        <v>31.70914200217444</v>
+        <v>21.92092052100496</v>
       </c>
       <c r="G14">
-        <v>31.36240506109633</v>
+        <v>24.36607324074846</v>
       </c>
       <c r="H14">
-        <v>14.89943994868933</v>
+        <v>8.898609915215857</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.63447790912812</v>
+        <v>6.720595409691491</v>
       </c>
       <c r="K14">
-        <v>9.884056464050557</v>
+        <v>15.28388856675772</v>
       </c>
       <c r="L14">
-        <v>8.667366710097415</v>
+        <v>7.73330382842646</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.91830109866494</v>
+        <v>12.47023646258617</v>
       </c>
       <c r="O14">
-        <v>23.03861185684591</v>
+        <v>14.95768497519339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.78300037969292</v>
+        <v>16.03152326682877</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.78203716301165</v>
+        <v>7.222258908404699</v>
       </c>
       <c r="E15">
-        <v>16.51807317513315</v>
+        <v>9.766548352101143</v>
       </c>
       <c r="F15">
-        <v>31.71314181004581</v>
+        <v>21.88732396154645</v>
       </c>
       <c r="G15">
-        <v>31.36302356307969</v>
+        <v>24.30698878163481</v>
       </c>
       <c r="H15">
-        <v>14.90317283309644</v>
+        <v>8.899836652487616</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.63724941885715</v>
+        <v>6.728336944925105</v>
       </c>
       <c r="K15">
-        <v>9.848766820474117</v>
+        <v>15.21375605589552</v>
       </c>
       <c r="L15">
-        <v>8.660883256909056</v>
+        <v>7.697046155492922</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.92438087820821</v>
+        <v>12.4914558561263</v>
       </c>
       <c r="O15">
-        <v>23.04360169789165</v>
+        <v>14.94607166314361</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.69116368213275</v>
+        <v>15.61101509062608</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.78202542403032</v>
+        <v>7.147075377955103</v>
       </c>
       <c r="E16">
-        <v>16.54327408195109</v>
+        <v>9.798096950431582</v>
       </c>
       <c r="F16">
-        <v>31.73796216855894</v>
+        <v>21.69962804232347</v>
       </c>
       <c r="G16">
-        <v>31.36905221332109</v>
+        <v>23.97407702938916</v>
       </c>
       <c r="H16">
-        <v>14.92517450622641</v>
+        <v>8.908662085082089</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.65338838371729</v>
+        <v>6.773125749717024</v>
       </c>
       <c r="K16">
-        <v>9.643582080098318</v>
+        <v>14.80553568927031</v>
       </c>
       <c r="L16">
-        <v>8.623884267327494</v>
+        <v>7.485999531543411</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.95972062910877</v>
+        <v>12.61380029545359</v>
       </c>
       <c r="O16">
-        <v>23.073456442931</v>
+        <v>14.8833858445701</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.63526673880972</v>
+        <v>15.34877886147616</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.7824045516331</v>
+        <v>7.101422731431871</v>
       </c>
       <c r="E17">
-        <v>16.55925211210626</v>
+        <v>9.81871336511267</v>
       </c>
       <c r="F17">
-        <v>31.7548831663024</v>
+        <v>21.58877601090849</v>
       </c>
       <c r="G17">
-        <v>31.37496743922943</v>
+        <v>23.77493963927165</v>
       </c>
       <c r="H17">
-        <v>14.9392163168649</v>
+        <v>8.915645497394777</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.66351847135894</v>
+        <v>6.800983985893241</v>
       </c>
       <c r="K17">
-        <v>9.515102048621916</v>
+        <v>14.54948290731309</v>
       </c>
       <c r="L17">
-        <v>8.601332167893425</v>
+        <v>7.353617911300081</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.98184649037497</v>
+        <v>12.68952980299853</v>
       </c>
       <c r="O17">
-        <v>23.09289519474116</v>
+        <v>14.84832474476747</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.60328750305311</v>
+        <v>15.19640865325983</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.78276495545739</v>
+        <v>7.075343699356596</v>
       </c>
       <c r="E18">
-        <v>16.56863284117196</v>
+        <v>9.831027811747543</v>
       </c>
       <c r="F18">
-        <v>31.76523833612412</v>
+        <v>21.52658646173671</v>
       </c>
       <c r="G18">
-        <v>31.37918432805283</v>
+        <v>23.6622827350435</v>
       </c>
       <c r="H18">
-        <v>14.94749295961685</v>
+        <v>8.920225979389219</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.66942948412589</v>
+        <v>6.817148529947582</v>
       </c>
       <c r="K18">
-        <v>9.440258720441811</v>
+        <v>14.40014920338288</v>
       </c>
       <c r="L18">
-        <v>8.588417146764488</v>
+        <v>7.276408195813233</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.99473695148129</v>
+        <v>12.73333972355479</v>
       </c>
       <c r="O18">
-        <v>23.10448865535962</v>
+        <v>14.82938404044632</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.59249012025276</v>
+        <v>15.14455744854226</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.78291146262361</v>
+        <v>7.066545168858138</v>
       </c>
       <c r="E19">
-        <v>16.57184174692204</v>
+        <v>9.835274964962874</v>
       </c>
       <c r="F19">
-        <v>31.7688513508798</v>
+        <v>21.50579887926999</v>
       </c>
       <c r="G19">
-        <v>31.3807519863182</v>
+        <v>23.62446307178246</v>
       </c>
       <c r="H19">
-        <v>14.95032967311414</v>
+        <v>8.92187247434666</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.67144537247734</v>
+        <v>6.822645910225552</v>
       </c>
       <c r="K19">
-        <v>9.414757012447803</v>
+        <v>14.3492345704819</v>
       </c>
       <c r="L19">
-        <v>8.584054289522456</v>
+        <v>7.25008329995608</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.99912968107925</v>
+        <v>12.74821673868791</v>
       </c>
       <c r="O19">
-        <v>23.10848488143591</v>
+        <v>14.82317940477536</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.64119954253276</v>
+        <v>15.37685432875105</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.7823494693025</v>
+        <v>7.106264136058524</v>
       </c>
       <c r="E20">
-        <v>16.55753150265221</v>
+        <v>9.816471306902814</v>
       </c>
       <c r="F20">
-        <v>31.75301745210268</v>
+        <v>21.60041375306198</v>
       </c>
       <c r="G20">
-        <v>31.37425344102975</v>
+        <v>23.79594361900473</v>
       </c>
       <c r="H20">
-        <v>14.93770082728609</v>
+        <v>8.914843460375977</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.66243136930984</v>
+        <v>6.79800383396901</v>
       </c>
       <c r="K20">
-        <v>9.528877068601226</v>
+        <v>14.57695343951982</v>
       </c>
       <c r="L20">
-        <v>8.603727109368982</v>
+        <v>7.36782069074665</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.97947416260424</v>
+        <v>12.68144224836785</v>
       </c>
       <c r="O20">
-        <v>23.09078317797598</v>
+        <v>14.8519297206079</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.80684021131579</v>
+        <v>16.13874843108667</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.78215932523468</v>
+        <v>7.241809892843699</v>
       </c>
       <c r="E21">
-        <v>16.51172681285194</v>
+        <v>9.75879960481177</v>
       </c>
       <c r="F21">
-        <v>31.70725757857203</v>
+        <v>21.93711670587587</v>
       </c>
       <c r="G21">
-        <v>31.36215241272953</v>
+        <v>24.39450586951136</v>
       </c>
       <c r="H21">
-        <v>14.89766071768117</v>
+        <v>8.898053888447135</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.63315342742312</v>
+        <v>6.716890621602621</v>
       </c>
       <c r="K21">
-        <v>9.900926148406194</v>
+        <v>15.31740703455614</v>
       </c>
       <c r="L21">
-        <v>8.670478343036462</v>
+        <v>7.750632491111147</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.91539449462506</v>
+        <v>12.46007420822598</v>
       </c>
       <c r="O21">
-        <v>23.03624138690512</v>
+        <v>14.96332300492399</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.91643268456096</v>
+        <v>16.62240097165972</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.78329461751577</v>
+        <v>7.331855985579653</v>
       </c>
       <c r="E22">
-        <v>16.48348389386919</v>
+        <v>9.725333713694944</v>
       </c>
       <c r="F22">
-        <v>31.68289620952067</v>
+        <v>22.17130763661651</v>
       </c>
       <c r="G22">
-        <v>31.36149708874335</v>
+        <v>24.8022307242527</v>
       </c>
       <c r="H22">
-        <v>14.87327326268844</v>
+        <v>8.892378148504775</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.61476712216362</v>
+        <v>6.665116282032951</v>
       </c>
       <c r="K22">
-        <v>10.13541156237851</v>
+        <v>15.782864831288</v>
       </c>
       <c r="L22">
-        <v>8.714545151915667</v>
+        <v>7.991272705387114</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.87497055034319</v>
+        <v>12.31755437846031</v>
       </c>
       <c r="O22">
-        <v>23.00427515937323</v>
+        <v>15.04749776618793</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.85782794962498</v>
+        <v>16.36559884290914</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.78257384221455</v>
+        <v>7.283669738309728</v>
       </c>
       <c r="E23">
-        <v>16.4984029496153</v>
+        <v>9.742800406905181</v>
       </c>
       <c r="F23">
-        <v>31.69539096516931</v>
+        <v>22.04501555677002</v>
       </c>
       <c r="G23">
-        <v>31.36118336971008</v>
+        <v>24.58311987426517</v>
       </c>
       <c r="H23">
-        <v>14.8861264057976</v>
+        <v>8.894909112998246</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.62451191943864</v>
+        <v>6.692636914513297</v>
       </c>
       <c r="K23">
-        <v>10.01106688482245</v>
+        <v>15.53613633169617</v>
       </c>
       <c r="L23">
-        <v>8.690988473720314</v>
+        <v>7.863713647879941</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.896412689425</v>
+        <v>12.39342693855996</v>
       </c>
       <c r="O23">
-        <v>23.02099924362575</v>
+        <v>15.00150986906258</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.63851683189974</v>
+        <v>15.36416640880056</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.78237392827075</v>
+        <v>7.10407481446013</v>
       </c>
       <c r="E24">
-        <v>16.55830878353611</v>
+        <v>9.817483504795407</v>
       </c>
       <c r="F24">
-        <v>31.75385898826803</v>
+        <v>21.59514753263036</v>
       </c>
       <c r="G24">
-        <v>31.37457369740941</v>
+        <v>23.78644201788399</v>
       </c>
       <c r="H24">
-        <v>14.93838534522753</v>
+        <v>8.915204302557685</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.66292257683125</v>
+        <v>6.799350697974652</v>
       </c>
       <c r="K24">
-        <v>9.522652426764781</v>
+        <v>14.56454063077058</v>
       </c>
       <c r="L24">
-        <v>8.60264419841228</v>
+        <v>7.361403045280674</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.98054616234606</v>
+        <v>12.68509778355344</v>
       </c>
       <c r="O24">
-        <v>23.09173671919044</v>
+        <v>14.85029612743518</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.40860683409745</v>
+        <v>14.22566267770963</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.78760401621119</v>
+        <v>6.917282070927444</v>
       </c>
       <c r="E25">
-        <v>16.63021607302392</v>
+        <v>9.915405060687624</v>
       </c>
       <c r="F25">
-        <v>31.84072794342783</v>
+        <v>21.16973825232069</v>
       </c>
       <c r="G25">
-        <v>31.42015242733595</v>
+        <v>22.99908509039588</v>
       </c>
       <c r="H25">
-        <v>15.00240859453559</v>
+        <v>8.958496989825919</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.70758578898643</v>
+        <v>6.919870075408312</v>
       </c>
       <c r="K25">
-        <v>8.959896530435199</v>
+        <v>13.43797445836552</v>
       </c>
       <c r="L25">
-        <v>8.509539419371032</v>
+        <v>6.77884523087601</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.07758176825084</v>
+        <v>13.00940969930777</v>
       </c>
       <c r="O25">
-        <v>23.18381753973987</v>
+        <v>14.73373710603425</v>
       </c>
     </row>
   </sheetData>
